--- a/biology/Zoologie/Hadrosauroidea/Hadrosauroidea.xlsx
+++ b/biology/Zoologie/Hadrosauroidea/Hadrosauroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hadrosauroidea (en français, les hadrosauroïdes) forment une super-famille éteinte de dinosaures ornithopodes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hadrosauroidea (en français, les hadrosauroïdes) forment une super-famille éteinte de dinosaures ornithopodes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale caractéristique les différenciant des autres Iguanodontia est leur « bec de canard ».
 </t>
@@ -542,11 +556,52 @@
           <t>Cladistique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De nombreuses analyses phylogénétiques sont proposées pour les Hadrosauroidea, qui sont des animaux souvent connus par des restes fossiles partiels ou mal conservés. Leur phylogénie est loin d'être stabilisée et devrait encore évoluer au fil des découvertes de nouveaux fossiles.
-Cladogrammes
-Prieto-Márquez et al.[3] (2016)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses analyses phylogénétiques sont proposées pour les Hadrosauroidea, qui sont des animaux souvent connus par des restes fossiles partiels ou mal conservés. Leur phylogénie est loin d'être stabilisée et devrait encore évoluer au fil des découvertes de nouveaux fossiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hadrosauroidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauroidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cladistique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cladogrammes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Prieto-Márquez et al.[3] (2016)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hadrosauroidea
 Jinzhousaurus
 Equijubus
@@ -563,8 +618,47 @@
 Lophorhothon
 Claosaurus
 Tethyshadros
-Hadrosauridae
-Wenhao et Godefroit[4] (2012)
+Hadrosauridae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hadrosauroidea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauroidea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cladistique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cladogrammes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Wenhao et Godefroit[4] (2012)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hadrosauriformes
 Iguanodontidae
 Iguanodon
@@ -584,9 +678,47 @@
 Shuangmiaosaurus
 Tethyshadros
 Telmatosaurus
-Hadrosauridae
-Ramírez-Velasco et al.[5] (2012)
-Les analyses phylogénétiques de Ramírez-Velasco et ses collègues en 2012 ont montré une importante polytomie parmi les Hadrosauroidea plus évolués que Probactrosaurus mais moins que les Hadrosauridae. L'exclusion des genres Claosaurus, Jeyawati, Levnesovia, Nanyangosaurus, Shuangmiaosaurus et Telmatosaurus de la topologie résout la question de la polytomie[5].
+Hadrosauridae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hadrosauroidea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauroidea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cladistique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cladogrammes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ramírez-Velasco et al.[5] (2012)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les analyses phylogénétiques de Ramírez-Velasco et ses collègues en 2012 ont montré une importante polytomie parmi les Hadrosauroidea plus évolués que Probactrosaurus mais moins que les Hadrosauridae. L'exclusion des genres Claosaurus, Jeyawati, Levnesovia, Nanyangosaurus, Shuangmiaosaurus et Telmatosaurus de la topologie résout la question de la polytomie.
 Hadrosauroidea
 Jinzhousaurus
 Fukuisaurus
@@ -602,8 +734,47 @@
 Huehuecanauhtlus
 Jintasaurus
 Tethyshadros
-Hadrosauridae
-Prieto-Márquez et Norell[6] (2010)
+Hadrosauridae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hadrosauroidea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrosauroidea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cladistique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cladogrammes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Prieto-Márquez et Norell[6] (2010)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hadrosauroidea
 Jinzhousaurus
 Penelopognathus
